--- a/UTEM_septiembre/resultados_actividad.xlsx
+++ b/UTEM_septiembre/resultados_actividad.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,363 +463,363 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>UTeM CIER -Mains_A (kWatts)</t>
+          <t>Air Conditioner-AC Sala Maestros 1 (kWatts)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-07-08/2024-07-14 (2658.1735)</t>
+          <t>2024-06-03/2024-06-09 (1200.0053)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-04-08/2024-04-14 (247.837)</t>
+          <t>2024-04-08/2024-04-14 (6.2427)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07 (2658.1735)</t>
+          <t>2024-06 (1200.0053)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024-04 (247.837)</t>
+          <t>2024-04 (6.2427)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>UTeM CIER -Mains_B (kWatts)</t>
+          <t>Air Conditioner-AC Direccion 1 (kWatts)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-07-08/2024-07-14 (2594.4149)</t>
+          <t>2024-04-08/2024-04-14 (32.5496)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-04-08/2024-04-14 (539.34)</t>
+          <t>2024-09-02/2024-09-08 (17.8375)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07 (2594.4149)</t>
+          <t>2024-04 (32.5496)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024-04 (539.34)</t>
+          <t>2024-09 (17.8375)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UTeM CIER -Mains_C (kWatts)</t>
+          <t>Air Conditioner-AC Rack (kWatts)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-05-06/2024-05-12 (1071.6192)</t>
+          <t>2024-04-08/2024-04-14 (414.4365)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-03-04/2024-03-10 (286.3387)</t>
+          <t>2024-08-05/2024-08-11 (174.9143)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-05 (1071.6192)</t>
+          <t>2024-04 (414.4365)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024-03 (286.3387)</t>
+          <t>2024-08 (174.9143)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Air Conditioner-AC Sala Maestros 1 (kWatts)</t>
+          <t>Air Conditioner-AC Aula Medios (kWatts)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-06-03/2024-06-09 (1200.0053)</t>
+          <t>2024-07-08/2024-07-14 (1324.4947)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-04-08/2024-04-14 (6.2427)</t>
+          <t>2024-03-04/2024-03-10 (10.0779)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-06 (1200.0053)</t>
+          <t>2024-07 (1324.4947)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024-04 (6.2427)</t>
+          <t>2024-03 (10.0779)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Air Conditioner-AC Direccion 1 (kWatts)</t>
+          <t>UTeM CIER -Tab Secundario L1 (kWatts)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-04-08/2024-04-14 (32.5496)</t>
+          <t>2024-07-08/2024-07-14 (560.1995)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-09-02/2024-09-08 (17.8375)</t>
+          <t>2024-03-04/2024-03-10 (121.6366)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-04 (32.5496)</t>
+          <t>2024-07 (560.1995)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024-09 (17.8375)</t>
+          <t>2024-03 (121.6366)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Air Conditioner-AC Rack (kWatts)</t>
+          <t>UTeM CIER -Tab Secundario L2 (kWatts)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-04-08/2024-04-14 (414.4365)</t>
+          <t>2024-07-08/2024-07-14 (570.7419)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-08-05/2024-08-11 (174.9143)</t>
+          <t>2024-03-04/2024-03-10 (130.2464)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-04 (414.4365)</t>
+          <t>2024-07 (570.7419)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024-08 (174.9143)</t>
+          <t>2024-03 (130.2464)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Air Conditioner-AC Aula Medios (kWatts)</t>
+          <t>UTeM CIER -Tab Secundario L3 (kWatts)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-07-08/2024-07-14 (1324.4947)</t>
+          <t>2024-07-08/2024-07-14 (693.3942)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-03-04/2024-03-10 (10.0779)</t>
+          <t>2024-03-04/2024-03-10 (190.8817)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07 (1324.4947)</t>
+          <t>2024-07 (693.3942)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024-03 (10.0779)</t>
+          <t>2024-03 (190.8817)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>UTeM CIER -Tab Secundario L1 (kWatts)</t>
+          <t>Air Conditioner-AC Sala Maestros 2 (kWatts)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-07-08/2024-07-14 (560.1995)</t>
+          <t>2024-07-08/2024-07-14 (1066.281)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-03-04/2024-03-10 (121.6366)</t>
+          <t>2024-04-08/2024-04-14 (15.868)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07 (560.1995)</t>
+          <t>2024-07 (1066.281)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024-03 (121.6366)</t>
+          <t>2024-04 (15.868)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UTeM CIER -Tab Secundario L2 (kWatts)</t>
+          <t>Air Conditioner-AC Direccion 2 (kWatts)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-07-08/2024-07-14 (570.7419)</t>
+          <t>2024-07-08/2024-07-14 (239.757)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-03-04/2024-03-10 (130.2464)</t>
+          <t>2024-04-08/2024-04-14 (37.4292)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07 (570.7419)</t>
+          <t>2024-07 (239.757)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024-03 (130.2464)</t>
+          <t>2024-04 (37.4292)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UTeM CIER -Tab Secundario L3 (kWatts)</t>
+          <t>Air Conditioner-AC Sala Juntas (kWatts)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-07-08/2024-07-14 (693.3942)</t>
+          <t>2024-05-06/2024-05-12 (281.4506)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-03-04/2024-03-10 (190.8817)</t>
+          <t>2024-09-02/2024-09-08 (85.8575)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07 (693.3942)</t>
+          <t>2024-05 (281.4506)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024-03 (190.8817)</t>
+          <t>2024-09 (85.8575)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Air Conditioner-AC Sala Maestros 2 (kWatts)</t>
+          <t>Air Conditioner-AC Cubiculos (kWatts)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024-07-08/2024-07-14 (1066.281)</t>
+          <t>2024-05-06/2024-05-12 (638.2403)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2024-04-08/2024-04-14 (15.868)</t>
+          <t>2024-04-08/2024-04-14 (0.0)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07 (1066.281)</t>
+          <t>2024-05 (638.2403)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024-04 (15.868)</t>
+          <t>2024-04 (0.0)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Air Conditioner-AC Direccion 2 (kWatts)</t>
+          <t>Other-Circuit_12 (kWatts)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-07-08/2024-07-14 (239.757)</t>
+          <t>2024-03-04/2024-03-10 (0)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024-04-08/2024-04-14 (37.4292)</t>
+          <t>2024-03-04/2024-03-10 (0)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07 (239.757)</t>
+          <t>2024-03 (0)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024-04 (37.4292)</t>
+          <t>2024-03 (0)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Air Conditioner-AC Sala Juntas (kWatts)</t>
+          <t>Other-Circuit_13 (kWatts)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-05-06/2024-05-12 (281.4506)</t>
+          <t>2024-03-04/2024-03-10 (0)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-09-02/2024-09-08 (85.8575)</t>
+          <t>2024-03-04/2024-03-10 (0)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-05 (281.4506)</t>
+          <t>2024-03 (0)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024-09 (85.8575)</t>
+          <t>2024-03 (0)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Air Conditioner-AC Cubiculos (kWatts)</t>
+          <t>Other-Circuit_14 (kWatts)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-05-06/2024-05-12 (638.2403)</t>
+          <t>2024-03-04/2024-03-10 (0.1101)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -829,7 +829,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-05 (638.2403)</t>
+          <t>2024-03 (0.1101)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -841,133 +841,52 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Other-Circuit_12 (kWatts)</t>
+          <t>Other-Circuit_15 (kWatts)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024-03-04/2024-03-10 (0)</t>
+          <t>2024-03-04/2024-03-10 (0.0496)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2024-03-04/2024-03-10 (0)</t>
+          <t>2024-04-08/2024-04-14 (0.0)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-03 (0)</t>
+          <t>2024-03 (0.0496)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2024-03 (0)</t>
+          <t>2024-04 (0.0)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Other-Circuit_13 (kWatts)</t>
+          <t>Other-Circuit_16 (kWatts)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024-03-04/2024-03-10 (0)</t>
+          <t>2024-03-04/2024-03-10 (5.7979)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2024-03-04/2024-03-10 (0)</t>
+          <t>2024-04-08/2024-04-14 (0.0)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-03 (0)</t>
+          <t>2024-03 (5.7979)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
-        <is>
-          <t>2024-03 (0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Other-Circuit_14 (kWatts)</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2024-03-04/2024-03-10 (0.1101)</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2024-04-08/2024-04-14 (0.0)</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2024-03 (0.1101)</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2024-04 (0.0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Other-Circuit_15 (kWatts)</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2024-03-04/2024-03-10 (0.0496)</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2024-04-08/2024-04-14 (0.0)</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2024-03 (0.0496)</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2024-04 (0.0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Other-Circuit_16 (kWatts)</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2024-03-04/2024-03-10 (5.7979)</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2024-04-08/2024-04-14 (0.0)</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2024-03 (5.7979)</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
         <is>
           <t>2024-04 (0.0)</t>
         </is>

--- a/UTEM_septiembre/resultados_actividad.xlsx
+++ b/UTEM_septiembre/resultados_actividad.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,432 +463,81 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Air Conditioner-AC Sala Maestros 1 (kWatts)</t>
+          <t>UTeM CIER -Mains_A (kWatts)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-06-03/2024-06-09 (1200.0053)</t>
+          <t>2024-08-05/2024-08-11 (8887.9925)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-04-08/2024-04-14 (6.2427)</t>
+          <t>2024-07-29/2024-08-04 (658.7364)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-06 (1200.0053)</t>
+          <t>2024-08 (9546.7289)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024-04 (6.2427)</t>
+          <t>2024-08 (9546.7289)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Air Conditioner-AC Direccion 1 (kWatts)</t>
+          <t>UTeM CIER -Mains_B (kWatts)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-04-08/2024-04-14 (32.5496)</t>
+          <t>2024-08-05/2024-08-11 (8111.243)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-09-02/2024-09-08 (17.8375)</t>
+          <t>2024-07-29/2024-08-04 (1080.945)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-04 (32.5496)</t>
+          <t>2024-08 (9192.188)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024-09 (17.8375)</t>
+          <t>2024-08 (9192.188)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Air Conditioner-AC Rack (kWatts)</t>
+          <t>UTeM CIER -Mains_C (kWatts)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-04-08/2024-04-14 (414.4365)</t>
+          <t>2024-08-05/2024-08-11 (4172.2188)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-08-05/2024-08-11 (174.9143)</t>
+          <t>2024-07-29/2024-08-04 (738.0699)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-04 (414.4365)</t>
+          <t>2024-08 (4910.2887)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024-08 (174.9143)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Air Conditioner-AC Aula Medios (kWatts)</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2024-07-08/2024-07-14 (1324.4947)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2024-03-04/2024-03-10 (10.0779)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2024-07 (1324.4947)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2024-03 (10.0779)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>UTeM CIER -Tab Secundario L1 (kWatts)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2024-07-08/2024-07-14 (560.1995)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2024-03-04/2024-03-10 (121.6366)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2024-07 (560.1995)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2024-03 (121.6366)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>UTeM CIER -Tab Secundario L2 (kWatts)</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2024-07-08/2024-07-14 (570.7419)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2024-03-04/2024-03-10 (130.2464)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2024-07 (570.7419)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2024-03 (130.2464)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>UTeM CIER -Tab Secundario L3 (kWatts)</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2024-07-08/2024-07-14 (693.3942)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2024-03-04/2024-03-10 (190.8817)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2024-07 (693.3942)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2024-03 (190.8817)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Air Conditioner-AC Sala Maestros 2 (kWatts)</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2024-07-08/2024-07-14 (1066.281)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2024-04-08/2024-04-14 (15.868)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2024-07 (1066.281)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2024-04 (15.868)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Air Conditioner-AC Direccion 2 (kWatts)</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2024-07-08/2024-07-14 (239.757)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2024-04-08/2024-04-14 (37.4292)</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2024-07 (239.757)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2024-04 (37.4292)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Air Conditioner-AC Sala Juntas (kWatts)</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2024-05-06/2024-05-12 (281.4506)</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2024-09-02/2024-09-08 (85.8575)</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2024-05 (281.4506)</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2024-09 (85.8575)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Air Conditioner-AC Cubiculos (kWatts)</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2024-05-06/2024-05-12 (638.2403)</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2024-04-08/2024-04-14 (0.0)</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2024-05 (638.2403)</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2024-04 (0.0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Other-Circuit_12 (kWatts)</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2024-03-04/2024-03-10 (0)</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2024-03-04/2024-03-10 (0)</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2024-03 (0)</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2024-03 (0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Other-Circuit_13 (kWatts)</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2024-03-04/2024-03-10 (0)</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2024-03-04/2024-03-10 (0)</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2024-03 (0)</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2024-03 (0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Other-Circuit_14 (kWatts)</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2024-03-04/2024-03-10 (0.1101)</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2024-04-08/2024-04-14 (0.0)</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2024-03 (0.1101)</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2024-04 (0.0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Other-Circuit_15 (kWatts)</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2024-03-04/2024-03-10 (0.0496)</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2024-04-08/2024-04-14 (0.0)</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2024-03 (0.0496)</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2024-04 (0.0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Other-Circuit_16 (kWatts)</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2024-03-04/2024-03-10 (5.7979)</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2024-04-08/2024-04-14 (0.0)</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2024-03 (5.7979)</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2024-04 (0.0)</t>
+          <t>2024-08 (4910.2887)</t>
         </is>
       </c>
     </row>
